--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Xchanging Solutions Ltd/Pruned_Excel/Semi_Final/Xchanging Solutions Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Xchanging Solutions Ltd/Pruned_Excel/Semi_Final/Xchanging Solutions Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="110">
   <si>
     <t>Balance Sheet of Xchanging Solutions(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,49 +62,52 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Dec 08</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Dec 09</t>
-  </si>
-  <si>
-    <t>Dec 15</t>
-  </si>
-  <si>
-    <t>Dec 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>Cash Flow of Xchanging Solutions(in Rs. Cr.)</t>
@@ -131,19 +137,19 @@
     <t>Cash and cash equivalents end of year</t>
   </si>
   <si>
-    <t>Dec 10</t>
-  </si>
-  <si>
-    <t>Dec 11</t>
-  </si>
-  <si>
-    <t>Dec 12</t>
-  </si>
-  <si>
-    <t>Dec 13</t>
-  </si>
-  <si>
-    <t>Dec 14</t>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
   </si>
   <si>
     <t>Profit &amp; Loss account of Xchanging Solutions(in Rs. Cr.)</t>
@@ -215,9 +221,6 @@
     <t>Quarterly Results of Xchanging Solutions(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -275,49 +278,7 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>09</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -744,13 +705,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,619 +751,667 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
         <v>30.11</v>
-      </c>
-      <c r="C2">
-        <v>72.02</v>
       </c>
       <c r="D2">
         <v>72.02</v>
       </c>
       <c r="E2">
+        <v>72.02</v>
+      </c>
+      <c r="F2">
         <v>102.14</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>65.81999999999999</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>120.22</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>503.44</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5.75</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>6.7</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>137.39</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>366.05</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>503.44</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
         <v>105.13</v>
-      </c>
-      <c r="C3">
-        <v>64.01000000000001</v>
       </c>
       <c r="D3">
         <v>64.01000000000001</v>
       </c>
       <c r="E3">
+        <v>64.01000000000001</v>
+      </c>
+      <c r="F3">
         <v>169.15</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>32.06</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>108.18</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>457.86</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5.19</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>6.43</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>250.78</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>207.07</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>457.86</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>111.37</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>138.4</v>
+        <v>111.34</v>
       </c>
       <c r="D4">
-        <v>138.4</v>
+        <v>137.89</v>
       </c>
       <c r="E4">
-        <v>249.76</v>
+        <v>137.89</v>
       </c>
       <c r="F4">
-        <v>100.36</v>
+        <v>249.23</v>
       </c>
       <c r="G4">
-        <v>198.81</v>
+        <v>74.05</v>
       </c>
       <c r="H4">
-        <v>498.45</v>
+        <v>140.12</v>
       </c>
       <c r="I4">
-        <v>27.01</v>
+        <v>408.41</v>
       </c>
       <c r="J4">
-        <v>30.59</v>
+        <v>4.49</v>
       </c>
       <c r="K4">
-        <v>236.45</v>
+        <v>5.88</v>
       </c>
       <c r="L4">
-        <v>261.99</v>
+        <v>228.95</v>
       </c>
       <c r="M4">
-        <v>498.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>179.46</v>
+      </c>
+      <c r="N4">
+        <v>408.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>111.34</v>
+      <c r="B5" t="s">
+        <v>29</v>
       </c>
       <c r="C5">
-        <v>137.89</v>
+        <v>111.37</v>
       </c>
       <c r="D5">
-        <v>137.89</v>
+        <v>138.4</v>
       </c>
       <c r="E5">
-        <v>249.23</v>
+        <v>138.4</v>
       </c>
       <c r="F5">
-        <v>74.05</v>
+        <v>249.76</v>
       </c>
       <c r="G5">
-        <v>140.12</v>
+        <v>100.36</v>
       </c>
       <c r="H5">
-        <v>408.41</v>
+        <v>198.81</v>
       </c>
       <c r="I5">
-        <v>4.49</v>
+        <v>498.45</v>
       </c>
       <c r="J5">
-        <v>5.88</v>
+        <v>27.01</v>
       </c>
       <c r="K5">
-        <v>228.95</v>
+        <v>30.59</v>
       </c>
       <c r="L5">
-        <v>179.46</v>
+        <v>236.45</v>
       </c>
       <c r="M5">
-        <v>408.41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>261.99</v>
+      </c>
+      <c r="N5">
+        <v>498.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
         <v>111.38</v>
-      </c>
-      <c r="C6">
-        <v>159.2</v>
       </c>
       <c r="D6">
         <v>159.2</v>
       </c>
       <c r="E6">
+        <v>159.2</v>
+      </c>
+      <c r="F6">
         <v>270.58</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>93.56999999999999</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>152.08</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>470.24</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>14.08</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>26.54</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>229.51</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>240.73</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>470.24</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
         <v>111.4</v>
-      </c>
-      <c r="C7">
-        <v>77.11</v>
       </c>
       <c r="D7">
         <v>77.11</v>
       </c>
       <c r="E7">
+        <v>77.11</v>
+      </c>
+      <c r="F7">
         <v>188.51</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>6.61</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>47.77</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>240.96</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4.59</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>4.79</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>105.78</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>135.18</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>240.96</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
         <v>111.4</v>
-      </c>
-      <c r="C8">
-        <v>72.98</v>
       </c>
       <c r="D8">
         <v>72.98</v>
       </c>
       <c r="E8">
+        <v>72.98</v>
+      </c>
+      <c r="F8">
         <v>184.38</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>7.91</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>49.83</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>239.28</v>
-      </c>
-      <c r="I8">
-        <v>2.57</v>
       </c>
       <c r="J8">
         <v>2.57</v>
       </c>
       <c r="K8">
+        <v>2.57</v>
+      </c>
+      <c r="L8">
         <v>101.23</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>138.05</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>239.28</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
         <v>111.4</v>
-      </c>
-      <c r="C9">
-        <v>70.37</v>
       </c>
       <c r="D9">
         <v>70.37</v>
       </c>
       <c r="E9">
+        <v>70.37</v>
+      </c>
+      <c r="F9">
         <v>181.77</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>34.94</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>51.96</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>238.13</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1.91</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2.04</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>103.88</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>134.25</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>238.13</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
         <v>111.4</v>
-      </c>
-      <c r="C10">
-        <v>76.27</v>
       </c>
       <c r="D10">
         <v>76.27</v>
       </c>
       <c r="E10">
+        <v>76.27</v>
+      </c>
+      <c r="F10">
         <v>187.67</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>37.19</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>52.33</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>243.44</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.34</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.38</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>95.59999999999999</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>147.84</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>243.44</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
         <v>111.4</v>
-      </c>
-      <c r="C11">
-        <v>92.98999999999999</v>
       </c>
       <c r="D11">
         <v>92.98999999999999</v>
       </c>
       <c r="E11">
+        <v>92.98999999999999</v>
+      </c>
+      <c r="F11">
         <v>204.39</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>39.63</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>48.73</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>256.15</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.24</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.29</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>93.64</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>162.51</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>256.15</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
         <v>111.4</v>
-      </c>
-      <c r="C12">
-        <v>115.71</v>
       </c>
       <c r="D12">
         <v>115.71</v>
       </c>
       <c r="E12">
+        <v>115.71</v>
+      </c>
+      <c r="F12">
         <v>227.11</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>35.34</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>42.28</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>273.9</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2.22</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>2.25</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>80.90000000000001</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>193</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>273.9</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
         <v>111.4</v>
-      </c>
-      <c r="C13">
-        <v>133.94</v>
       </c>
       <c r="D13">
         <v>133.94</v>
       </c>
       <c r="E13">
+        <v>133.94</v>
+      </c>
+      <c r="F13">
         <v>245.34</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>34.7</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>41.12</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>292.15</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1.73</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1.76</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>100.4</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>191.75</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>292.15</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
         <v>111.4</v>
-      </c>
-      <c r="C14">
-        <v>155.93</v>
       </c>
       <c r="D14">
         <v>155.93</v>
       </c>
       <c r="E14">
+        <v>155.93</v>
+      </c>
+      <c r="F14">
         <v>267.33</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>28.5</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>34.57</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>307.27</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2.13</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2.15</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>88.98</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>218.29</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>307.27</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
         <v>111.4</v>
-      </c>
-      <c r="C15">
-        <v>170.42</v>
       </c>
       <c r="D15">
         <v>170.42</v>
       </c>
       <c r="E15">
+        <v>170.42</v>
+      </c>
+      <c r="F15">
         <v>281.82</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>29.71</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>35.46</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>322.44</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1.54</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1.55</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>97.18000000000001</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>225.26</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>322.44</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
         <v>111.4</v>
-      </c>
-      <c r="C16">
-        <v>202.93</v>
       </c>
       <c r="D16">
         <v>202.93</v>
       </c>
       <c r="E16">
+        <v>202.93</v>
+      </c>
+      <c r="F16">
         <v>314.33</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>29.62</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>36.48</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>352.87</v>
-      </c>
-      <c r="I16">
-        <v>1.06</v>
       </c>
       <c r="J16">
         <v>1.06</v>
       </c>
       <c r="K16">
+        <v>1.06</v>
+      </c>
+      <c r="L16">
         <v>80.15000000000001</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>272.72</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>352.87</v>
       </c>
     </row>
@@ -1413,366 +1422,402 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+      <c r="C2">
         <v>7.3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-45.45</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-3.92</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>174.72</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>125.34</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>8.710000000000001</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>134.05</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
         <v>-9.75</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>9.609999999999999</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-121.64</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-21.72</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>-133.75</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>134.05</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>12.64</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>-5.96</v>
+        <v>8.19</v>
       </c>
       <c r="D4">
-        <v>-6.48</v>
+        <v>132.56</v>
       </c>
       <c r="E4">
-        <v>8.050000000000001</v>
+        <v>-76.39</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>-51.56</v>
       </c>
       <c r="G4">
-        <v>-4.4</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>8.470000000000001</v>
+        <v>4.61</v>
       </c>
       <c r="I4">
-        <v>4.07</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.57</v>
+      </c>
+      <c r="J4">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>8.19</v>
+      <c r="B5" t="s">
+        <v>29</v>
       </c>
       <c r="C5">
-        <v>132.56</v>
+        <v>12.64</v>
       </c>
       <c r="D5">
-        <v>-76.39</v>
+        <v>-5.96</v>
       </c>
       <c r="E5">
-        <v>-51.56</v>
+        <v>-6.48</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G5">
-        <v>4.61</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.57</v>
+        <v>-4.4</v>
       </c>
       <c r="I5">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="J5">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
         <v>20.62</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>45.28</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-11.42</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-34.67</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>4.07</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3.26</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
         <v>0.36</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>25.51</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-4.81</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-19.13</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>1.58</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3.26</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4.84</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
         <v>-119.67</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>17.62</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>355.08</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-354.44</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>18.26</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5.26</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>23.52</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
         <v>13.58</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>11.47</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-12.38</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.16</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>-1.07</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>23.52</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>22.45</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>28.98</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>31.22</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-7.69</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.17</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>23.7</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>22.45</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>46.15</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
         <v>13.81</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>9.470000000000001</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>3.67</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.12</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>13.26</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>46.15</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>59.41</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
         <v>23.09</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>19.42</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>5.61</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.87</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>24.16</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>59.41</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>83.56999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>29</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1795,236 +1840,263 @@
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
         <v>-6.21</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>10.95</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>9.859999999999999</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.78</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>20.03</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>83.56999999999999</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>103.6</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
         <v>12.96</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>14.2</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>9.01</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-0.74</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>22.47</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>103.6</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>126.07</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
         <v>24.31</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>8.65</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>8.34</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-0.09</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>16.9</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>126.07</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>142.97</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
         <v>26.33</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>5.31</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>17.46</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-0.59</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>22.18</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>142.97</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>165.15</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
         <v>22.2</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>13.06</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>7.6</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-1.34</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>19.32</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>165.15</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>184.47</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
         <v>22.81</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>11.42</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>7.23</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-1.07</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>17.58</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>184.47</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>202.05</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
         <v>18.79</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>9.539999999999999</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>8.630000000000001</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-0.48</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>17.69</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>202.05</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>219.74</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
         <v>407</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-32.84</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>412.32</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-334.66</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>44.82</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>219.74</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>264.56</v>
       </c>
     </row>
@@ -2035,86 +2107,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>164.85</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
       </c>
       <c r="C2">
         <v>164.85</v>
@@ -2123,66 +2198,69 @@
         <v>164.85</v>
       </c>
       <c r="E2">
+        <v>164.85</v>
+      </c>
+      <c r="F2">
         <v>0.8100000000000001</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>165.66</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>70.68000000000001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>40.75</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>8.970000000000001</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4.47</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>33.1</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>158.55</v>
-      </c>
-      <c r="M2">
-        <v>7.11</v>
       </c>
       <c r="N2">
         <v>7.11</v>
       </c>
       <c r="O2">
+        <v>7.11</v>
+      </c>
+      <c r="P2">
         <v>2.31</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.11</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2.7</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4.42</v>
-      </c>
-      <c r="S2">
-        <v>2.27</v>
       </c>
       <c r="T2">
         <v>2.27</v>
       </c>
       <c r="U2">
-        <v>0.75</v>
+        <v>2.27</v>
       </c>
       <c r="V2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>170.91</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
       </c>
       <c r="C3">
         <v>170.91</v>
@@ -2191,202 +2269,211 @@
         <v>170.91</v>
       </c>
       <c r="E3">
+        <v>170.91</v>
+      </c>
+      <c r="F3">
         <v>0.99</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>171.9</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>83.04000000000001</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>47.16</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>19.32</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3.62</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>28.01</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>182.13</v>
-      </c>
-      <c r="M3">
-        <v>-10.23</v>
       </c>
       <c r="N3">
         <v>-10.23</v>
       </c>
       <c r="O3">
+        <v>-10.23</v>
+      </c>
+      <c r="P3">
         <v>0.52</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.44</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1.38</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>-11.61</v>
-      </c>
-      <c r="S3">
-        <v>-11.13</v>
       </c>
       <c r="T3">
         <v>-11.13</v>
       </c>
       <c r="U3">
-        <v>-1.06</v>
+        <v>-11.13</v>
       </c>
       <c r="V3">
         <v>-1.06</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>-1.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>213.56</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>213.56</v>
+        <v>178.23</v>
       </c>
       <c r="D4">
-        <v>213.56</v>
+        <v>178.23</v>
       </c>
       <c r="E4">
-        <v>10.07</v>
+        <v>178.23</v>
       </c>
       <c r="F4">
-        <v>223.62</v>
+        <v>-11.25</v>
       </c>
       <c r="G4">
-        <v>58.82</v>
+        <v>166.99</v>
       </c>
       <c r="H4">
-        <v>75.12</v>
+        <v>77.2</v>
       </c>
       <c r="I4">
-        <v>7.1</v>
+        <v>54.15</v>
       </c>
       <c r="J4">
-        <v>8.390000000000001</v>
+        <v>14.16</v>
       </c>
       <c r="K4">
-        <v>59.31</v>
+        <v>2.73</v>
       </c>
       <c r="L4">
-        <v>210.99</v>
+        <v>9.66</v>
       </c>
       <c r="M4">
-        <v>12.63</v>
+        <v>158.8</v>
       </c>
       <c r="N4">
-        <v>12.63</v>
+        <v>8.19</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>8.19</v>
       </c>
       <c r="P4">
-        <v>0.7</v>
+        <v>0.24</v>
       </c>
       <c r="Q4">
-        <v>1.34</v>
+        <v>3</v>
       </c>
       <c r="R4">
-        <v>11.29</v>
+        <v>3.87</v>
       </c>
       <c r="S4">
-        <v>11.67</v>
+        <v>4.32</v>
       </c>
       <c r="T4">
-        <v>11.67</v>
+        <v>4.32</v>
       </c>
       <c r="U4">
-        <v>1.05</v>
+        <v>4.32</v>
       </c>
       <c r="V4">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>0.39</v>
+      </c>
+      <c r="W4">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>178.23</v>
+      <c r="B5" t="s">
+        <v>29</v>
       </c>
       <c r="C5">
-        <v>178.23</v>
+        <v>213.56</v>
       </c>
       <c r="D5">
-        <v>178.23</v>
+        <v>213.56</v>
       </c>
       <c r="E5">
-        <v>-11.25</v>
+        <v>213.56</v>
       </c>
       <c r="F5">
-        <v>166.99</v>
+        <v>10.07</v>
       </c>
       <c r="G5">
-        <v>77.2</v>
+        <v>223.62</v>
       </c>
       <c r="H5">
-        <v>54.15</v>
+        <v>58.82</v>
       </c>
       <c r="I5">
-        <v>14.16</v>
+        <v>75.12</v>
       </c>
       <c r="J5">
-        <v>2.73</v>
+        <v>7.1</v>
       </c>
       <c r="K5">
-        <v>9.66</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="L5">
-        <v>158.8</v>
+        <v>59.31</v>
       </c>
       <c r="M5">
-        <v>8.19</v>
+        <v>210.99</v>
       </c>
       <c r="N5">
-        <v>8.19</v>
+        <v>12.63</v>
       </c>
       <c r="O5">
-        <v>0.24</v>
+        <v>12.63</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>3.87</v>
+        <v>0.7</v>
       </c>
       <c r="R5">
-        <v>4.32</v>
+        <v>1.34</v>
       </c>
       <c r="S5">
-        <v>4.32</v>
+        <v>11.29</v>
       </c>
       <c r="T5">
-        <v>4.32</v>
+        <v>11.67</v>
       </c>
       <c r="U5">
-        <v>0.39</v>
+        <v>11.67</v>
       </c>
       <c r="V5">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>1.05</v>
+      </c>
+      <c r="W5">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>252.72</v>
+      <c r="B6" t="s">
+        <v>29</v>
       </c>
       <c r="C6">
         <v>252.72</v>
@@ -2395,66 +2482,69 @@
         <v>252.72</v>
       </c>
       <c r="E6">
+        <v>252.72</v>
+      </c>
+      <c r="F6">
         <v>2.75</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>255.48</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>57.34</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>91.29000000000001</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>14.45</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>14.27</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>48.56</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>232.17</v>
-      </c>
-      <c r="M6">
-        <v>23.3</v>
       </c>
       <c r="N6">
         <v>23.3</v>
       </c>
       <c r="O6">
+        <v>23.3</v>
+      </c>
+      <c r="P6">
         <v>-1.73</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>-1.5</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>24.8</v>
-      </c>
-      <c r="S6">
-        <v>20.72</v>
       </c>
       <c r="T6">
         <v>20.72</v>
       </c>
       <c r="U6">
-        <v>1.86</v>
+        <v>20.72</v>
       </c>
       <c r="V6">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
-        <v>217.92</v>
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
       </c>
       <c r="C7">
         <v>217.92</v>
@@ -2463,66 +2553,69 @@
         <v>217.92</v>
       </c>
       <c r="E7">
+        <v>217.92</v>
+      </c>
+      <c r="F7">
         <v>2.83</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>220.75</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>18.24</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>101.79</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5.98</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>13.92</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>51.2</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>197.56</v>
-      </c>
-      <c r="M7">
-        <v>23.18</v>
       </c>
       <c r="N7">
         <v>23.18</v>
       </c>
       <c r="O7">
+        <v>23.18</v>
+      </c>
+      <c r="P7">
         <v>1.84</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>1.84</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>21.35</v>
-      </c>
-      <c r="S7">
-        <v>-1.48</v>
       </c>
       <c r="T7">
         <v>-1.48</v>
       </c>
       <c r="U7">
-        <v>-0.13</v>
+        <v>-1.48</v>
       </c>
       <c r="V7">
         <v>-0.13</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8">
-        <v>173.02</v>
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
       </c>
       <c r="C8">
         <v>173.02</v>
@@ -2531,66 +2624,69 @@
         <v>173.02</v>
       </c>
       <c r="E8">
+        <v>173.02</v>
+      </c>
+      <c r="F8">
         <v>13.07</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>186.09</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>91.89</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3.21</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>8.51</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>46.27</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>149.88</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>36.21</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-119.67</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1.81</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>-2.54</v>
-      </c>
-      <c r="R8">
-        <v>-117.13</v>
       </c>
       <c r="S8">
         <v>-117.13</v>
       </c>
       <c r="T8">
+        <v>-117.13</v>
+      </c>
+      <c r="U8">
         <v>-129.55</v>
-      </c>
-      <c r="U8">
-        <v>-11.63</v>
       </c>
       <c r="V8">
         <v>-11.63</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>-11.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9">
-        <v>99.78</v>
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
       </c>
       <c r="C9">
         <v>99.78</v>
@@ -2599,46 +2695,46 @@
         <v>99.78</v>
       </c>
       <c r="E9">
+        <v>99.78</v>
+      </c>
+      <c r="F9">
         <v>8.24</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>108.02</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>61.12</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.16</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>3.44</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>24.36</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>89.08</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>18.94</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>13.58</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>7.15</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>7.15</v>
-      </c>
-      <c r="R9">
-        <v>6.43</v>
       </c>
       <c r="S9">
         <v>6.43</v>
@@ -2647,18 +2743,21 @@
         <v>6.43</v>
       </c>
       <c r="U9">
-        <v>0.58</v>
+        <v>6.43</v>
       </c>
       <c r="V9">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>112.11</v>
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
       </c>
       <c r="C10">
         <v>112.11</v>
@@ -2667,46 +2766,46 @@
         <v>112.11</v>
       </c>
       <c r="E10">
+        <v>112.11</v>
+      </c>
+      <c r="F10">
         <v>18.55</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>130.66</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>64.90000000000001</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.17</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>4.34</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>33.92</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>103.33</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>27.33</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>28.98</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>13.65</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-6.21</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>7.44</v>
-      </c>
-      <c r="R10">
-        <v>21.54</v>
       </c>
       <c r="S10">
         <v>21.54</v>
@@ -2715,18 +2814,21 @@
         <v>21.54</v>
       </c>
       <c r="U10">
-        <v>1.93</v>
+        <v>21.54</v>
       </c>
       <c r="V10">
         <v>1.93</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11">
-        <v>149.58</v>
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
       </c>
       <c r="C11">
         <v>149.58</v>
@@ -2735,46 +2837,46 @@
         <v>149.58</v>
       </c>
       <c r="E11">
+        <v>149.58</v>
+      </c>
+      <c r="F11">
         <v>14.14</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>163.72</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>73.65000000000001</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.2</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>4.5</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>66.41</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>144.76</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>18.96</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>13.81</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>10.35</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-3.76</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>6.59</v>
-      </c>
-      <c r="R11">
-        <v>7.22</v>
       </c>
       <c r="S11">
         <v>7.22</v>
@@ -2783,18 +2885,21 @@
         <v>7.22</v>
       </c>
       <c r="U11">
-        <v>0.65</v>
+        <v>7.22</v>
       </c>
       <c r="V11">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
-        <v>120.9</v>
+      <c r="B12" t="s">
+        <v>29</v>
       </c>
       <c r="C12">
         <v>120.9</v>
@@ -2803,46 +2908,46 @@
         <v>120.9</v>
       </c>
       <c r="E12">
+        <v>120.9</v>
+      </c>
+      <c r="F12">
         <v>12.03</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>132.93</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>64.5</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.19</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>3.89</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>41.26</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>109.84</v>
-      </c>
-      <c r="M12">
-        <v>23.09</v>
       </c>
       <c r="N12">
         <v>23.09</v>
       </c>
       <c r="O12">
+        <v>23.09</v>
+      </c>
+      <c r="P12">
         <v>6.51</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>2.94</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>9.449999999999999</v>
-      </c>
-      <c r="R12">
-        <v>13.64</v>
       </c>
       <c r="S12">
         <v>13.64</v>
@@ -2851,18 +2956,21 @@
         <v>13.64</v>
       </c>
       <c r="U12">
-        <v>1.22</v>
+        <v>13.64</v>
       </c>
       <c r="V12">
         <v>1.22</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
-        <v>81.68000000000001</v>
+      <c r="B13" t="s">
+        <v>29</v>
       </c>
       <c r="C13">
         <v>81.68000000000001</v>
@@ -2871,46 +2979,46 @@
         <v>81.68000000000001</v>
       </c>
       <c r="E13">
+        <v>81.68000000000001</v>
+      </c>
+      <c r="F13">
         <v>7.8</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>89.48</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>56.67</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.12</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2.34</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>33.13</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>92.26000000000001</v>
-      </c>
-      <c r="M13">
-        <v>-2.78</v>
       </c>
       <c r="N13">
         <v>-2.78</v>
       </c>
       <c r="O13">
+        <v>-2.78</v>
+      </c>
+      <c r="P13">
         <v>1.35</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>1.35</v>
-      </c>
-      <c r="R13">
-        <v>-4.13</v>
       </c>
       <c r="S13">
         <v>-4.13</v>
@@ -2919,18 +3027,21 @@
         <v>-4.13</v>
       </c>
       <c r="U13">
-        <v>-0.37</v>
+        <v>-4.13</v>
       </c>
       <c r="V13">
         <v>-0.37</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
-        <v>99.02</v>
+      <c r="B14" t="s">
+        <v>28</v>
       </c>
       <c r="C14">
         <v>99.02</v>
@@ -2939,46 +3050,46 @@
         <v>99.02</v>
       </c>
       <c r="E14">
+        <v>99.02</v>
+      </c>
+      <c r="F14">
         <v>10.74</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>109.76</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>65.02</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.15</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2.8</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>48</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>115.97</v>
-      </c>
-      <c r="M14">
-        <v>-6.21</v>
       </c>
       <c r="N14">
         <v>-6.21</v>
       </c>
       <c r="O14">
+        <v>-6.21</v>
+      </c>
+      <c r="P14">
         <v>3.06</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-2.59</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0.47</v>
-      </c>
-      <c r="R14">
-        <v>-6.68</v>
       </c>
       <c r="S14">
         <v>-6.68</v>
@@ -2987,18 +3098,21 @@
         <v>-6.68</v>
       </c>
       <c r="U14">
-        <v>-0.6</v>
+        <v>-6.68</v>
       </c>
       <c r="V14">
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
-        <v>55.93</v>
+      <c r="B15" t="s">
+        <v>28</v>
       </c>
       <c r="C15">
         <v>55.93</v>
@@ -3007,46 +3121,46 @@
         <v>55.93</v>
       </c>
       <c r="E15">
+        <v>55.93</v>
+      </c>
+      <c r="F15">
         <v>10.48</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>66.41</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>33.4</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.04</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1.02</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>18.99</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>53.45</v>
-      </c>
-      <c r="M15">
-        <v>12.96</v>
       </c>
       <c r="N15">
         <v>12.96</v>
       </c>
       <c r="O15">
+        <v>12.96</v>
+      </c>
+      <c r="P15">
         <v>7.15</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.47</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>7.35</v>
-      </c>
-      <c r="R15">
-        <v>5.61</v>
       </c>
       <c r="S15">
         <v>5.61</v>
@@ -3055,18 +3169,21 @@
         <v>5.61</v>
       </c>
       <c r="U15">
-        <v>0.5</v>
+        <v>5.61</v>
       </c>
       <c r="V15">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
-        <v>52.03</v>
+      <c r="B16" t="s">
+        <v>28</v>
       </c>
       <c r="C16">
         <v>52.03</v>
@@ -3075,46 +3192,46 @@
         <v>52.03</v>
       </c>
       <c r="E16">
+        <v>52.03</v>
+      </c>
+      <c r="F16">
         <v>12.02</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>64.05</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>25.84</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.01</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.37</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>13.52</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>39.74</v>
-      </c>
-      <c r="M16">
-        <v>24.31</v>
       </c>
       <c r="N16">
         <v>24.31</v>
       </c>
       <c r="O16">
+        <v>24.31</v>
+      </c>
+      <c r="P16">
         <v>7.37</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.32</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>7.84</v>
-      </c>
-      <c r="R16">
-        <v>16.47</v>
       </c>
       <c r="S16">
         <v>16.47</v>
@@ -3123,18 +3240,21 @@
         <v>16.47</v>
       </c>
       <c r="U16">
-        <v>1.48</v>
+        <v>16.47</v>
       </c>
       <c r="V16">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
-        <v>42.7</v>
+      <c r="B17" t="s">
+        <v>28</v>
       </c>
       <c r="C17">
         <v>42.7</v>
@@ -3143,46 +3263,46 @@
         <v>42.7</v>
       </c>
       <c r="E17">
+        <v>42.7</v>
+      </c>
+      <c r="F17">
         <v>15.68</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>58.38</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>20.9</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.11</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.77</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>10.27</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>32.05</v>
-      </c>
-      <c r="M17">
-        <v>26.33</v>
       </c>
       <c r="N17">
         <v>26.33</v>
       </c>
       <c r="O17">
+        <v>26.33</v>
+      </c>
+      <c r="P17">
         <v>8.02</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1.41</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>3.64</v>
-      </c>
-      <c r="R17">
-        <v>22.69</v>
       </c>
       <c r="S17">
         <v>22.69</v>
@@ -3191,18 +3311,21 @@
         <v>22.69</v>
       </c>
       <c r="U17">
-        <v>2.04</v>
+        <v>22.69</v>
       </c>
       <c r="V17">
         <v>2.04</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18">
-        <v>40.97</v>
+      <c r="B18" t="s">
+        <v>28</v>
       </c>
       <c r="C18">
         <v>40.97</v>
@@ -3211,46 +3334,46 @@
         <v>40.97</v>
       </c>
       <c r="E18">
+        <v>40.97</v>
+      </c>
+      <c r="F18">
         <v>14.51</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>55.48</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>21.64</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.25</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.87</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>10.52</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>33.28</v>
-      </c>
-      <c r="M18">
-        <v>22.2</v>
       </c>
       <c r="N18">
         <v>22.2</v>
       </c>
       <c r="O18">
+        <v>22.2</v>
+      </c>
+      <c r="P18">
         <v>7.75</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-0.04</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>3.99</v>
-      </c>
-      <c r="R18">
-        <v>18.21</v>
       </c>
       <c r="S18">
         <v>18.21</v>
@@ -3259,18 +3382,21 @@
         <v>18.21</v>
       </c>
       <c r="U18">
-        <v>1.63</v>
+        <v>18.21</v>
       </c>
       <c r="V18">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
-        <v>43.85</v>
+      <c r="B19" t="s">
+        <v>28</v>
       </c>
       <c r="C19">
         <v>43.85</v>
@@ -3279,46 +3405,46 @@
         <v>43.85</v>
       </c>
       <c r="E19">
+        <v>43.85</v>
+      </c>
+      <c r="F19">
         <v>8.33</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>52.18</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>20.37</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.16</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.89</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>7.95</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>29.37</v>
-      </c>
-      <c r="M19">
-        <v>22.81</v>
       </c>
       <c r="N19">
         <v>22.81</v>
       </c>
       <c r="O19">
+        <v>22.81</v>
+      </c>
+      <c r="P19">
         <v>7.28</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.76</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.62</v>
-      </c>
-      <c r="R19">
-        <v>22.19</v>
       </c>
       <c r="S19">
         <v>22.19</v>
@@ -3327,18 +3453,21 @@
         <v>22.19</v>
       </c>
       <c r="U19">
-        <v>1.99</v>
+        <v>22.19</v>
       </c>
       <c r="V19">
         <v>1.99</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B20">
-        <v>38.11</v>
+      <c r="B20" t="s">
+        <v>28</v>
       </c>
       <c r="C20">
         <v>38.11</v>
@@ -3347,46 +3476,46 @@
         <v>38.11</v>
       </c>
       <c r="E20">
+        <v>38.11</v>
+      </c>
+      <c r="F20">
         <v>9.390000000000001</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>47.5</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>19.6</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.1</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.6</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>8.41</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>28.71</v>
-      </c>
-      <c r="M20">
-        <v>18.79</v>
       </c>
       <c r="N20">
         <v>18.79</v>
       </c>
       <c r="O20">
+        <v>18.79</v>
+      </c>
+      <c r="P20">
         <v>4.33</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>3.03</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>4.1</v>
-      </c>
-      <c r="R20">
-        <v>14.69</v>
       </c>
       <c r="S20">
         <v>14.69</v>
@@ -3395,18 +3524,21 @@
         <v>14.69</v>
       </c>
       <c r="U20">
-        <v>1.32</v>
+        <v>14.69</v>
       </c>
       <c r="V20">
         <v>1.32</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21">
-        <v>36.83</v>
+      <c r="B21" t="s">
+        <v>28</v>
       </c>
       <c r="C21">
         <v>36.83</v>
@@ -3415,46 +3547,46 @@
         <v>36.83</v>
       </c>
       <c r="E21">
+        <v>36.83</v>
+      </c>
+      <c r="F21">
         <v>88.77</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>125.6</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>18.36</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.1</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.54</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>9.25</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>28.25</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>97.34999999999999</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>407</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>42.34</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.86</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>40.5</v>
-      </c>
-      <c r="R21">
-        <v>366.5</v>
       </c>
       <c r="S21">
         <v>366.5</v>
@@ -3463,9 +3595,12 @@
         <v>366.5</v>
       </c>
       <c r="U21">
+        <v>366.5</v>
+      </c>
+      <c r="V21">
         <v>32.9</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>32.9</v>
       </c>
     </row>
@@ -3484,84 +3619,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>28.41</v>
@@ -3626,13 +3761,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>30.47</v>
@@ -3697,13 +3832,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>35.19</v>
@@ -3768,13 +3903,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>40.23</v>
@@ -3839,13 +3974,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>38.53</v>
@@ -3910,13 +4045,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D7">
         <v>35.63</v>
@@ -3981,13 +4116,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D8">
         <v>28.57</v>
@@ -4052,13 +4187,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>87</v>
       </c>
-      <c r="B9" t="s">
-        <v>100</v>
-      </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D9">
         <v>29.49</v>
@@ -4123,13 +4258,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D10">
         <v>32.88</v>
@@ -4194,13 +4329,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D11">
         <v>29.96</v>
@@ -4265,13 +4400,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>24.76</v>
@@ -4336,13 +4471,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <v>19.74</v>
@@ -4407,13 +4542,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
         <v>88</v>
-      </c>
-      <c r="B14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" t="s">
-        <v>101</v>
       </c>
       <c r="D14">
         <v>18.19</v>
@@ -4478,13 +4613,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D15">
         <v>18.99</v>
@@ -4549,13 +4684,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D16">
         <v>17.34</v>
@@ -4620,13 +4755,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D17">
         <v>15.09</v>
@@ -4691,13 +4826,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D18">
         <v>12.61</v>
@@ -4762,13 +4897,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
         <v>89</v>
-      </c>
-      <c r="B19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
       </c>
       <c r="D19">
         <v>13.79</v>
@@ -4833,13 +4968,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
         <v>90</v>
-      </c>
-      <c r="B20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" t="s">
-        <v>103</v>
       </c>
       <c r="D20">
         <v>14.44</v>
@@ -4904,13 +5039,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D21">
         <v>13.62</v>
@@ -4975,13 +5110,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D22">
         <v>11.53</v>
@@ -5046,13 +5181,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D23">
         <v>14.28</v>
@@ -5117,13 +5252,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D24">
         <v>12.6</v>
@@ -5188,13 +5323,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
         <v>91</v>
-      </c>
-      <c r="B25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" t="s">
-        <v>104</v>
       </c>
       <c r="D25">
         <v>10.88</v>
@@ -5259,13 +5394,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D26">
         <v>10.84</v>
@@ -5330,13 +5465,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D27">
         <v>10.8</v>
@@ -5401,13 +5536,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D28">
         <v>10.18</v>
@@ -5472,13 +5607,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D29">
         <v>10.7</v>
@@ -5543,13 +5678,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D30">
         <v>9.92</v>
@@ -5614,13 +5749,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D31">
         <v>9.68</v>
@@ -5685,13 +5820,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D32">
         <v>10.67</v>
@@ -5756,13 +5891,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D33">
         <v>9.699999999999999</v>
@@ -5827,13 +5962,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D34">
         <v>11.04</v>
@@ -5898,13 +6033,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D35">
         <v>11.73</v>
@@ -5969,13 +6104,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D36">
         <v>11.38</v>
@@ -6040,13 +6175,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D37">
         <v>10.19</v>
@@ -6111,13 +6246,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D38">
         <v>10.16</v>
@@ -6182,13 +6317,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D39">
         <v>8.890000000000001</v>
@@ -6253,13 +6388,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D40">
         <v>8.869999999999999</v>
@@ -6324,13 +6459,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D41">
         <v>8.880000000000001</v>
@@ -6395,13 +6530,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D42">
         <v>8.58</v>
@@ -6466,13 +6601,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D43">
         <v>8.699999999999999</v>
@@ -6537,13 +6672,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D44">
         <v>10.67</v>
@@ -6608,13 +6743,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D45">
         <v>9.48</v>
@@ -6679,13 +6814,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D46">
         <v>9.029999999999999</v>
@@ -6755,167 +6890,173 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
         <v>54.74</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>6.83</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5.34</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2.36</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.75</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>12.47</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>9.75</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4.31</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.37</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2.22</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.45</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2.34</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>100</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>566.8099999999999</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>27.57</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
         <v>16.26</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.21</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.87</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.97</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-1.06</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>7.43</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5.32</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-5.98</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-6.51</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-6.58</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-2.43</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1.39</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
         <v>0</v>
       </c>
@@ -6923,223 +7064,235 @@
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>1542.18</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>121.29</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>19.18</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>2.53</v>
+        <v>16.01</v>
       </c>
       <c r="D4">
-        <v>1.77</v>
+        <v>2.25</v>
       </c>
       <c r="E4">
-        <v>1.13</v>
+        <v>2.01</v>
       </c>
       <c r="F4">
+        <v>0.74</v>
+      </c>
+      <c r="G4">
+        <v>0.39</v>
+      </c>
+      <c r="H4">
+        <v>14.07</v>
+      </c>
+      <c r="I4">
+        <v>12.54</v>
+      </c>
+      <c r="J4">
+        <v>4.59</v>
+      </c>
+      <c r="K4">
+        <v>2.42</v>
+      </c>
+      <c r="L4">
+        <v>1.73</v>
+      </c>
+      <c r="M4">
         <v>1.05</v>
       </c>
-      <c r="G4">
-        <v>13.16</v>
-      </c>
-      <c r="H4">
-        <v>9.24</v>
-      </c>
-      <c r="I4">
-        <v>5.91</v>
-      </c>
-      <c r="J4">
-        <v>5.46</v>
-      </c>
-      <c r="K4">
-        <v>4.67</v>
-      </c>
-      <c r="L4">
-        <v>2.34</v>
-      </c>
-      <c r="M4">
-        <v>0.39</v>
-      </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="Q4">
-        <v>910</v>
-      </c>
       <c r="R4">
-        <v>32.36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>462.54</v>
+      </c>
+      <c r="S4">
+        <v>18.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>16.01</v>
+      <c r="B5" t="s">
+        <v>29</v>
       </c>
       <c r="C5">
-        <v>2.25</v>
+        <v>19.18</v>
       </c>
       <c r="D5">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="E5">
-        <v>0.74</v>
+        <v>1.77</v>
       </c>
       <c r="F5">
+        <v>1.13</v>
+      </c>
+      <c r="G5">
+        <v>1.05</v>
+      </c>
+      <c r="H5">
+        <v>13.16</v>
+      </c>
+      <c r="I5">
+        <v>9.24</v>
+      </c>
+      <c r="J5">
+        <v>5.91</v>
+      </c>
+      <c r="K5">
+        <v>5.46</v>
+      </c>
+      <c r="L5">
+        <v>4.67</v>
+      </c>
+      <c r="M5">
+        <v>2.34</v>
+      </c>
+      <c r="N5">
         <v>0.39</v>
       </c>
-      <c r="G5">
-        <v>14.07</v>
-      </c>
-      <c r="H5">
-        <v>12.54</v>
-      </c>
-      <c r="I5">
-        <v>4.59</v>
-      </c>
-      <c r="J5">
-        <v>2.42</v>
-      </c>
-      <c r="K5">
-        <v>1.73</v>
-      </c>
-      <c r="L5">
-        <v>1.05</v>
-      </c>
-      <c r="M5">
-        <v>0.25</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>100</v>
       </c>
-      <c r="Q5">
-        <v>462.54</v>
-      </c>
       <c r="R5">
-        <v>18.44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>910</v>
+      </c>
+      <c r="S5">
+        <v>32.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
         <v>22.69</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>4.67</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3.39</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.09</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.86</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>20.58</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>14.93</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>9.220000000000001</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>8.19</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>7.65</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>4.4</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.27</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>100</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1090.29</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>20.96</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
         <v>19.56</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>3.87</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2.62</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.08</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.13</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>19.77</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>13.38</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>10.63</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.67</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-0.54</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-0.37</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.21</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
         <v>0</v>
       </c>
@@ -7147,55 +7300,58 @@
         <v>0</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>588.05</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>13.65</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
         <v>15.53</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>4.3</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>3.54</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-10.74</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-11.63</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>27.7</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>22.78</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-69.16</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-74.87</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-92.73999999999999</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-70.31999999999999</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.01</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8">
         <v>0</v>
       </c>
@@ -7203,220 +7359,232 @@
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>143.36</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>2.99</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
         <v>8.960000000000001</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2.02</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.71</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.22</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.58</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>22.58</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>19.14</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>13.6</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>6.44</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>4.4</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>3.36</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.01</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>100</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>133.84</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>5.94</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>10.06</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2.86</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>2.47</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.6</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.93</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>28.4</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>24.52</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>25.84</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>19.21</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>12.84</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>9.380000000000001</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.01</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>100</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>86.08</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>2.7</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
         <v>13.43</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2.12</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1.72</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.24</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.65</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>15.81</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>12.8</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>9.23</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>4.82</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>4.12</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2.86</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.01</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>100</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>377.12</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>15.94</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
         <v>10.85</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2.44</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2.09</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2.07</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.22</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>22.47</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>19.25</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>19.09</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>11.28</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>7.23</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>5.66</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
         <v>0</v>
       </c>
@@ -7427,52 +7595,55 @@
         <v>0</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>559.5599999999999</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>20.59</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
         <v>7.33</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-0.03</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.24</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-0.25</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.37</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.39</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-3.25</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-3.4</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-5.05</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-2.23</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-1.72</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
         <v>0</v>
       </c>
@@ -7483,52 +7654,55 @@
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>564.64</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-1764.48</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
         <v>8.890000000000001</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.29</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.54</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.6</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-3.29</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-6.11</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-6.27</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-6.74</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-3.67</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-2.8</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
         <v>0</v>
       </c>
@@ -7539,52 +7713,55 @@
         <v>0</v>
       </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>531.34</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-162.99</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
         <v>5.02</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.26</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.17</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.16</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.5</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>25.06</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>23.24</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>23.17</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>10.03</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2.98</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2.3</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
         <v>0</v>
       </c>
@@ -7595,52 +7772,55 @@
         <v>0</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>634.78</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>45.28</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
         <v>4.67</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2.22</v>
-      </c>
-      <c r="D16">
-        <v>2.18</v>
       </c>
       <c r="E16">
         <v>2.18</v>
       </c>
       <c r="F16">
+        <v>2.18</v>
+      </c>
+      <c r="G16">
         <v>1.48</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>47.45</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>46.74</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>46.72</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>31.65</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>8.050000000000001</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>6.42</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
         <v>0</v>
       </c>
@@ -7651,52 +7831,55 @@
         <v>0</v>
       </c>
       <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>349.18</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>14.14</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
         <v>3.83</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2.44</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>2.37</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2.36</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2.04</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>63.72</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>61.92</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>61.66</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>53.13</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>9.99</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>8.279999999999999</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
         <v>0</v>
       </c>
@@ -7707,52 +7890,55 @@
         <v>0</v>
       </c>
       <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>186.7</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>6.86</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
         <v>3.68</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2.09</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>2.02</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1.99</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1.63</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>56.91</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>54.79</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>54.18</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>44.44</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>7.42</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>6.23</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
         <v>0</v>
       </c>
@@ -7763,52 +7949,55 @@
         <v>0</v>
       </c>
       <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>536.13</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>22.99</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
         <v>3.94</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2.14</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>2.06</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2.05</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1.99</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>54.41</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>52.38</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>52.01</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>50.6</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>8.300000000000001</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>7.22</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
         <v>0</v>
       </c>
@@ -7819,52 +8008,55 @@
         <v>0</v>
       </c>
       <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>700.12</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>29.34</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
         <v>3.42</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1.75</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1.7</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1.69</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.32</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>51.14</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>49.56</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>49.3</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>38.54</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>5.21</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>4.55</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
         <v>0</v>
       </c>
@@ -7875,65 +8067,71 @@
         <v>0</v>
       </c>
       <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>373.28</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>19.15</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
         <v>3.31</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>8.800000000000001</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>8.75</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>36.54</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>32.9</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>266.06</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>264.59</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1105.07</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>995.11</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>116.59</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>103.86</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>91.18000000000001</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>91.05</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>8.82</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>996.15</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>10.17</v>
       </c>
     </row>
